--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2481713.530848463</v>
+        <v>2479461.451137255</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>92.72329049755469</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>58.92805047992061</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247634</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>258.2317318494237</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>15.72599233723578</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>17.35112070699488</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>129.5398680316054</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247499</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734099341</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>134.6311335666461</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>130.4734430125648</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>282.6988068886403</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>186.8460807091488</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>51.06561173382029</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722637</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805175794</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>71.56327578339575</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701374</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.66054613217786</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1844,19 +1844,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722643</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="18">
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887061</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187894</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.05856366754561</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>97.24762927924141</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060233</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>32.84316668127781</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135851</v>
       </c>
     </row>
     <row r="44">
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2065.110222835252</v>
+        <v>921.7704558796238</v>
       </c>
       <c r="C2" t="n">
-        <v>1696.14770589484</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>1337.88200728809</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>952.0937546898456</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>541.1078499002381</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>126.0353997452345</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W2" t="n">
-        <v>3215.315153136266</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X2" t="n">
-        <v>2841.849394875186</v>
+        <v>1698.509627919557</v>
       </c>
       <c r="Y2" t="n">
-        <v>2451.710062899374</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4431,28 +4431,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1446.505797040962</v>
+        <v>1163.171458061136</v>
       </c>
       <c r="V4" t="n">
-        <v>1191.821308835075</v>
+        <v>908.4869698552495</v>
       </c>
       <c r="W4" t="n">
-        <v>1175.936468090393</v>
+        <v>619.069799818289</v>
       </c>
       <c r="X4" t="n">
-        <v>1175.936468090393</v>
+        <v>619.069799818289</v>
       </c>
       <c r="Y4" t="n">
-        <v>1175.936468090393</v>
+        <v>398.2772206747588</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3197.788768583745</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U5" t="n">
-        <v>3197.788768583745</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V5" t="n">
-        <v>3197.788768583745</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W5" t="n">
-        <v>3197.788768583745</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811061</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999791</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387279</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332724</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601574</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927755</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064296</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533339</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125854</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619334</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431605</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199862</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471661</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266128</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501174</v>
       </c>
     </row>
     <row r="7">
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>775.7875500159902</v>
+        <v>669.4690763615324</v>
       </c>
       <c r="C7" t="n">
-        <v>775.7875500159902</v>
+        <v>500.5328934336255</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>350.4162540212898</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>202.5031604388967</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>202.5031604388967</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>202.5031604388967</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088492</v>
@@ -4750,25 +4750,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.986850094498</v>
+        <v>1326.594608541189</v>
       </c>
       <c r="V7" t="n">
-        <v>1513.986850094498</v>
+        <v>1071.910120335302</v>
       </c>
       <c r="W7" t="n">
-        <v>1224.569680057538</v>
+        <v>1071.910120335302</v>
       </c>
       <c r="X7" t="n">
-        <v>996.5801291595203</v>
+        <v>1071.910120335302</v>
       </c>
       <c r="Y7" t="n">
-        <v>775.7875500159902</v>
+        <v>851.1175411917721</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,10 +4802,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3026.581738278539</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066531</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
-        <v>2630.721789066531</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>2630.721789066531</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>701.1808689801002</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>532.2446860521933</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>382.1280466398576</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
         <v>234.2149530574645</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1875.713122094735</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1621.028633888848</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1331.611463851887</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1103.62191295387</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>882.8293338103399</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192613</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,40 +5051,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273913</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868374</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1024.063349920561</v>
+        <v>513.853600740068</v>
       </c>
       <c r="C13" t="n">
-        <v>855.1271669926543</v>
+        <v>344.9174178121611</v>
       </c>
       <c r="D13" t="n">
-        <v>705.0105275803186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E13" t="n">
-        <v>557.0974339979255</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5194,55 +5194,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648818</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750801</v>
+        <v>916.2946447138379</v>
       </c>
       <c r="Y13" t="n">
-        <v>1205.711814750801</v>
+        <v>695.5020655703078</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277368</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277368</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355941</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168638</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,52 +6212,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038356</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797757</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6458,7 +6458,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6601,19 +6601,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,19 +7072,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7266,13 +7266,13 @@
         <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
         <v>402.7245934908939</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7783,19 +7783,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.104893954106956e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.48334686148155e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.5862749664544</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>73.85777223953549</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.76050189075339</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788491</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108222</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253409</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>154.8900140445866</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814924</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,16 +25078,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>132.680971610991</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>812104.6609529104</v>
+        <v>812104.6609529105</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>812104.6609529104</v>
+        <v>812104.6609529105</v>
       </c>
     </row>
     <row r="4">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="M2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="N2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>7.254361662489829e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>7.723256517081232e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.202397277</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551207</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316954</v>
       </c>
       <c r="C4" t="n">
+        <v>91573.95495316957</v>
+      </c>
+      <c r="D4" t="n">
         <v>91573.95495316942</v>
       </c>
-      <c r="D4" t="n">
-        <v>91573.95495316945</v>
-      </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181798</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181801</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181801</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.920181818</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
@@ -26442,13 +26442,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
+        <v>12386.92018181812</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12386.92018181819</v>
+      </c>
+      <c r="M4" t="n">
         <v>12386.92018181815</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26470,22 +26470,22 @@
         <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-891945.2695973357</v>
+        <v>-891945.2695973353</v>
       </c>
       <c r="C6" t="n">
-        <v>436799.4761302567</v>
+        <v>436799.4761302572</v>
       </c>
       <c r="D6" t="n">
-        <v>436799.4761302564</v>
+        <v>436799.4761302561</v>
       </c>
       <c r="E6" t="n">
-        <v>186616.7029466743</v>
+        <v>186581.9650212382</v>
       </c>
       <c r="F6" t="n">
-        <v>512029.1647540297</v>
+        <v>511994.4268285938</v>
       </c>
       <c r="G6" t="n">
-        <v>512029.1647540295</v>
+        <v>511994.4268285943</v>
       </c>
       <c r="H6" t="n">
-        <v>512029.1647540297</v>
+        <v>511994.4268285938</v>
       </c>
       <c r="I6" t="n">
-        <v>512029.1647540297</v>
+        <v>511994.4268285939</v>
       </c>
       <c r="J6" t="n">
-        <v>294497.9623567521</v>
+        <v>294463.2244313168</v>
       </c>
       <c r="K6" t="n">
-        <v>512029.1647540297</v>
+        <v>511994.4268285939</v>
       </c>
       <c r="L6" t="n">
-        <v>512029.1647540297</v>
+        <v>511994.426828594</v>
       </c>
       <c r="M6" t="n">
-        <v>426974.136818518</v>
+        <v>426939.3988930818</v>
       </c>
       <c r="N6" t="n">
-        <v>512029.1647540298</v>
+        <v>511994.4268285938</v>
       </c>
       <c r="O6" t="n">
-        <v>512029.1647540298</v>
+        <v>511994.4268285939</v>
       </c>
       <c r="P6" t="n">
-        <v>512029.1647540297</v>
+        <v>511994.4268285938</v>
       </c>
     </row>
   </sheetData>
@@ -26787,31 +26787,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022917</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>272.5496012734529</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>235.6797139073998</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983812</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>27.9801063561892</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>270.7970059993552</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>186.5668494326253</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>256.6980706244482</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>10.12388134767465</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>155.7383951930481</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.0350347748403</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>17.07188943047134</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>235.1462264717926</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28096,13 +28096,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>-1.501466017062054e-12</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-4.414055634415178e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28333,13 +28333,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-2.508117851338566e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28564,19 +28564,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-2.133751045993956e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-2.410960718834983e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29457,7 +29457,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,46 +31434,46 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413618</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31862,16 +31862,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145758</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>270.4557004614704</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>395.184849093591</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>314.3020503687023</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,22 +33026,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,19 +33497,19 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34220,7 +34220,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>616.9033572954396</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,10 +34229,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34445,10 +34445,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306614</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789354</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,25 +35483,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580284</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010438</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.402257299894</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312425</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>136.4812930471402</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715726</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>171.7058059242579</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096363</v>
       </c>
       <c r="L28" t="n">
         <v>394.3420143191314</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>485.5616452121063</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,10 +37877,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
